--- a/data/componentes_kits.xlsx
+++ b/data/componentes_kits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DFA8BC-B235-4B19-8912-032EDD9FED94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F51517A-B0A2-41D5-A47B-CDF931A4BE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,10 +131,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,7 +352,7 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -635,10 +634,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>1098259</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18">
+        <v>146712</v>
+      </c>
+      <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">

--- a/data/componentes_kits.xlsx
+++ b/data/componentes_kits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F51517A-B0A2-41D5-A47B-CDF931A4BE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34011C7C-E1B2-4A4F-AAB1-8AFFF45B66D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>codigo_aba</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>sap_20</t>
-  </si>
-  <si>
-    <t>TESTE</t>
   </si>
 </sst>
 </file>
@@ -349,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U1000"/>
+  <dimension ref="A1:U999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -625,7 +622,7 @@
         <v>3641734</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>121486</v>
       </c>
@@ -633,29 +630,19 @@
         <v>3641734</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>146712</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1623,7 +1610,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
